--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1877,28 +1877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>460.0826202362454</v>
+        <v>511.8828270091464</v>
       </c>
       <c r="AB2" t="n">
-        <v>629.5053384199172</v>
+        <v>700.3806665904373</v>
       </c>
       <c r="AC2" t="n">
-        <v>569.4262324374109</v>
+        <v>633.5373187614845</v>
       </c>
       <c r="AD2" t="n">
-        <v>460082.6202362453</v>
+        <v>511882.8270091463</v>
       </c>
       <c r="AE2" t="n">
-        <v>629505.3384199172</v>
+        <v>700380.6665904373</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.61220655891158e-06</v>
+        <v>3.765925238571537e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.63541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>569426.232437411</v>
+        <v>633537.3187614845</v>
       </c>
     </row>
     <row r="3">
@@ -1983,28 +1983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.6324513164342</v>
+        <v>194.4473033568637</v>
       </c>
       <c r="AB3" t="n">
-        <v>230.7303594297365</v>
+        <v>266.051378862329</v>
       </c>
       <c r="AC3" t="n">
-        <v>208.7097777579223</v>
+        <v>240.6598086692416</v>
       </c>
       <c r="AD3" t="n">
-        <v>168632.4513164342</v>
+        <v>194447.3033568637</v>
       </c>
       <c r="AE3" t="n">
-        <v>230730.3594297365</v>
+        <v>266051.3788623291</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.838840575926405e-06</v>
+        <v>6.975984264390668e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.28125</v>
       </c>
       <c r="AH3" t="n">
-        <v>208709.7777579223</v>
+        <v>240659.8086692416</v>
       </c>
     </row>
     <row r="4">
@@ -2089,28 +2089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>141.4166848294139</v>
+        <v>167.3167882158641</v>
       </c>
       <c r="AB4" t="n">
-        <v>193.4925470473361</v>
+        <v>228.9302111325778</v>
       </c>
       <c r="AC4" t="n">
-        <v>175.0258899256884</v>
+        <v>207.0814330877199</v>
       </c>
       <c r="AD4" t="n">
-        <v>141416.6848294139</v>
+        <v>167316.788215864</v>
       </c>
       <c r="AE4" t="n">
-        <v>193492.5470473361</v>
+        <v>228930.2111325778</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.249359354926584e-06</v>
+        <v>7.56781457944374e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.789583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>175025.8899256884</v>
+        <v>207081.4330877199</v>
       </c>
     </row>
     <row r="5">
@@ -2195,28 +2195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>141.2956201604214</v>
+        <v>167.1957235468716</v>
       </c>
       <c r="AB5" t="n">
-        <v>193.3269010262244</v>
+        <v>228.7645651114662</v>
       </c>
       <c r="AC5" t="n">
-        <v>174.8760529283459</v>
+        <v>206.9315960903774</v>
       </c>
       <c r="AD5" t="n">
-        <v>141295.6201604214</v>
+        <v>167195.7235468716</v>
       </c>
       <c r="AE5" t="n">
-        <v>193326.9010262244</v>
+        <v>228764.5651114662</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.265552526379682e-06</v>
+        <v>7.591159698481015e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.772916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>174876.0529283459</v>
+        <v>206931.5960903774</v>
       </c>
     </row>
   </sheetData>
@@ -2492,28 +2492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>289.4296457947972</v>
+        <v>323.0994295233604</v>
       </c>
       <c r="AB2" t="n">
-        <v>396.0104101112429</v>
+        <v>442.0788936146865</v>
       </c>
       <c r="AC2" t="n">
-        <v>358.2157323743265</v>
+        <v>399.8875044697241</v>
       </c>
       <c r="AD2" t="n">
-        <v>289429.6457947972</v>
+        <v>323099.4295233604</v>
       </c>
       <c r="AE2" t="n">
-        <v>396010.410111243</v>
+        <v>442078.8936146866</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.456566303523866e-06</v>
+        <v>5.060283035954096e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.095833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>358215.7323743265</v>
+        <v>399887.5044697241</v>
       </c>
     </row>
     <row r="3">
@@ -2598,28 +2598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.8083162376084</v>
+        <v>161.0605869026171</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.8189297162716</v>
+        <v>220.3702004916751</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.0846318627087</v>
+        <v>199.3383778483318</v>
       </c>
       <c r="AD3" t="n">
-        <v>135808.3162376084</v>
+        <v>161060.5869026171</v>
       </c>
       <c r="AE3" t="n">
-        <v>185818.9297162716</v>
+        <v>220370.2004916751</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.293055796519934e-06</v>
+        <v>7.748834566888666e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.939583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>168084.6318627087</v>
+        <v>199338.3778483318</v>
       </c>
     </row>
     <row r="4">
@@ -2704,28 +2704,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>135.7194658630597</v>
+        <v>160.9717365280684</v>
       </c>
       <c r="AB4" t="n">
-        <v>185.6973607140122</v>
+        <v>220.2486314894158</v>
       </c>
       <c r="AC4" t="n">
-        <v>167.9746652354018</v>
+        <v>199.2284112210249</v>
       </c>
       <c r="AD4" t="n">
-        <v>135719.4658630597</v>
+        <v>160971.7365280684</v>
       </c>
       <c r="AE4" t="n">
-        <v>185697.3607140122</v>
+        <v>220248.6314894158</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.311316559824439e-06</v>
+        <v>7.77556763741567e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.91875</v>
       </c>
       <c r="AH4" t="n">
-        <v>167974.6652354018</v>
+        <v>199228.4112210249</v>
       </c>
     </row>
   </sheetData>
@@ -3001,28 +3001,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.6676773528178</v>
+        <v>170.9696330640881</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.0454307921799</v>
+        <v>233.9281946060566</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.7624984499747</v>
+        <v>211.6024160332053</v>
       </c>
       <c r="AD2" t="n">
-        <v>147667.6773528178</v>
+        <v>170969.6330640881</v>
       </c>
       <c r="AE2" t="n">
-        <v>202045.4307921799</v>
+        <v>233928.1946060566</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.963409825664913e-06</v>
+        <v>7.679007648447118e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.068750000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>182762.4984499748</v>
+        <v>211602.4160332053</v>
       </c>
     </row>
   </sheetData>
@@ -3298,28 +3298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.9583446465151</v>
+        <v>175.9588658389214</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.9701581392096</v>
+        <v>240.7546829979956</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.1716026958124</v>
+        <v>217.7773939540565</v>
       </c>
       <c r="AD2" t="n">
-        <v>143958.3446465151</v>
+        <v>175958.8658389214</v>
       </c>
       <c r="AE2" t="n">
-        <v>196970.1581392096</v>
+        <v>240754.6829979956</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.065386505866011e-06</v>
+        <v>7.655288074129777e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>178171.6026958124</v>
+        <v>217777.3939540565</v>
       </c>
     </row>
     <row r="3">
@@ -3404,28 +3404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.272202277057</v>
+        <v>163.2513474662699</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.5583714113097</v>
+        <v>223.3676957443982</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.3717478942221</v>
+        <v>202.049796361147</v>
       </c>
       <c r="AD3" t="n">
-        <v>139272.202277057</v>
+        <v>163251.3474662699</v>
       </c>
       <c r="AE3" t="n">
-        <v>190558.3714113097</v>
+        <v>223367.6957443982</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.204579112604393e-06</v>
+        <v>7.865649021144857e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.447916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>172371.7478942221</v>
+        <v>202049.796361147</v>
       </c>
     </row>
   </sheetData>
@@ -3701,28 +3701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.7027448782339</v>
+        <v>191.3261213547959</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.3028764288384</v>
+        <v>261.7808399502702</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.231865064471</v>
+        <v>236.7968439972093</v>
       </c>
       <c r="AD2" t="n">
-        <v>153702.7448782339</v>
+        <v>191326.1213547959</v>
       </c>
       <c r="AE2" t="n">
-        <v>210302.8764288384</v>
+        <v>261780.8399502702</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.588426853482009e-06</v>
+        <v>7.251953536493486e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.941666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>190231.865064471</v>
+        <v>236796.8439972093</v>
       </c>
     </row>
   </sheetData>
@@ -3998,28 +3998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>317.8686143227058</v>
+        <v>360.2395275849075</v>
       </c>
       <c r="AB2" t="n">
-        <v>434.921861489871</v>
+        <v>492.8956142879817</v>
       </c>
       <c r="AC2" t="n">
-        <v>393.4135294459433</v>
+        <v>445.8543486436755</v>
       </c>
       <c r="AD2" t="n">
-        <v>317868.6143227058</v>
+        <v>360239.5275849075</v>
       </c>
       <c r="AE2" t="n">
-        <v>434921.8614898711</v>
+        <v>492895.6142879817</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.243053337276984e-06</v>
+        <v>4.728002994615009e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.608333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>393413.5294459433</v>
+        <v>445854.3486436754</v>
       </c>
     </row>
     <row r="3">
@@ -4104,28 +4104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.2811674726156</v>
+        <v>163.7037154299362</v>
       </c>
       <c r="AB3" t="n">
-        <v>189.2023938705036</v>
+        <v>223.9866455493522</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.1451829467837</v>
+        <v>202.6096744654179</v>
       </c>
       <c r="AD3" t="n">
-        <v>138281.1674726155</v>
+        <v>163703.7154299362</v>
       </c>
       <c r="AE3" t="n">
-        <v>189202.3938705036</v>
+        <v>223986.6455493522</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.254033561083768e-06</v>
+        <v>7.65978349016903e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.931249999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>171145.1829467837</v>
+        <v>202609.6744654179</v>
       </c>
     </row>
     <row r="4">
@@ -4210,28 +4210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>136.8439036908742</v>
+        <v>162.2664516481948</v>
       </c>
       <c r="AB4" t="n">
-        <v>187.2358661567231</v>
+        <v>222.0201178355717</v>
       </c>
       <c r="AC4" t="n">
-        <v>169.3663378779668</v>
+        <v>200.830829396601</v>
       </c>
       <c r="AD4" t="n">
-        <v>136843.9036908742</v>
+        <v>162266.4516481948</v>
       </c>
       <c r="AE4" t="n">
-        <v>187235.8661567231</v>
+        <v>222020.1178355716</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.302790035348308e-06</v>
+        <v>7.730864885494822e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.875</v>
       </c>
       <c r="AH4" t="n">
-        <v>169366.3378779668</v>
+        <v>200830.829396601</v>
       </c>
     </row>
   </sheetData>
@@ -4507,28 +4507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.3067457847617</v>
+        <v>204.3982148354086</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.9164706353029</v>
+        <v>279.6666549504985</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.06900396422</v>
+        <v>252.9756619167204</v>
       </c>
       <c r="AD2" t="n">
-        <v>167306.7457847617</v>
+        <v>204398.2148354086</v>
       </c>
       <c r="AE2" t="n">
-        <v>228916.4706353029</v>
+        <v>279666.6549504985</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.2929927921424e-06</v>
+        <v>6.878382867050549e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.685416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>207069.00396422</v>
+        <v>252975.6619167204</v>
       </c>
     </row>
   </sheetData>
@@ -4804,28 +4804,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.3125753521627</v>
+        <v>232.2454266400539</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.7082586469457</v>
+        <v>317.7684386738744</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.681365190206</v>
+        <v>287.4410648777389</v>
       </c>
       <c r="AD2" t="n">
-        <v>199312.5753521627</v>
+        <v>232245.4266400539</v>
       </c>
       <c r="AE2" t="n">
-        <v>272708.2586469457</v>
+        <v>317768.4386738744</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.240513071611819e-06</v>
+        <v>6.296496986721412e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.639583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>246681.365190206</v>
+        <v>287441.0648777389</v>
       </c>
     </row>
     <row r="3">
@@ -4910,28 +4910,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.9286377553163</v>
+        <v>165.5430248752141</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.8247795094387</v>
+        <v>226.503269876986</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.4218531843901</v>
+        <v>204.8861156993275</v>
       </c>
       <c r="AD3" t="n">
-        <v>140928.6377553163</v>
+        <v>165543.0248752141</v>
       </c>
       <c r="AE3" t="n">
-        <v>192824.7795094387</v>
+        <v>226503.269876986</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.293022347856334e-06</v>
+        <v>7.859308225468744e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.120833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>174421.8531843901</v>
+        <v>204886.1156993275</v>
       </c>
     </row>
   </sheetData>
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.158623809925</v>
+        <v>286.6779891510866</v>
       </c>
       <c r="AB2" t="n">
-        <v>346.3827976668213</v>
+        <v>392.2454720967946</v>
       </c>
       <c r="AC2" t="n">
-        <v>313.3245096089131</v>
+        <v>354.8101147598535</v>
       </c>
       <c r="AD2" t="n">
-        <v>253158.623809925</v>
+        <v>286677.9891510867</v>
       </c>
       <c r="AE2" t="n">
-        <v>346382.7976668213</v>
+        <v>392245.4720967946</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.705276504476664e-06</v>
+        <v>5.448395969149468e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.566666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>313324.5096089131</v>
+        <v>354810.1147598535</v>
       </c>
     </row>
     <row r="3">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>134.3900938750046</v>
+        <v>167.6534366524477</v>
       </c>
       <c r="AB3" t="n">
-        <v>183.8784553122032</v>
+        <v>229.3908283753921</v>
       </c>
       <c r="AC3" t="n">
-        <v>166.329353612291</v>
+        <v>207.4980896673605</v>
       </c>
       <c r="AD3" t="n">
-        <v>134390.0938750046</v>
+        <v>167653.4366524477</v>
       </c>
       <c r="AE3" t="n">
-        <v>183878.4553122032</v>
+        <v>229390.8283753921</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.299607272921559e-06</v>
+        <v>7.792767656874034e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.989583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>166329.353612291</v>
+        <v>207498.0896673605</v>
       </c>
     </row>
     <row r="4">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>134.773973414933</v>
+        <v>168.0373161923761</v>
       </c>
       <c r="AB4" t="n">
-        <v>184.4036962343031</v>
+        <v>229.916069297492</v>
       </c>
       <c r="AC4" t="n">
-        <v>166.8044662779662</v>
+        <v>207.9732023330356</v>
       </c>
       <c r="AD4" t="n">
-        <v>134773.973414933</v>
+        <v>168037.3161923761</v>
       </c>
       <c r="AE4" t="n">
-        <v>184403.6962343031</v>
+        <v>229916.069297492</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.300369017196974e-06</v>
+        <v>7.793887758014848e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.9875</v>
       </c>
       <c r="AH4" t="n">
-        <v>166804.4662779662</v>
+        <v>207973.2023330356</v>
       </c>
     </row>
   </sheetData>
@@ -5716,28 +5716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>402.8200777693181</v>
+        <v>454.2267081647215</v>
       </c>
       <c r="AB2" t="n">
-        <v>551.156201571587</v>
+        <v>621.4930211790506</v>
       </c>
       <c r="AC2" t="n">
-        <v>498.5546272461813</v>
+        <v>562.178599508655</v>
       </c>
       <c r="AD2" t="n">
-        <v>402820.0777693181</v>
+        <v>454226.7081647215</v>
       </c>
       <c r="AE2" t="n">
-        <v>551156.201571587</v>
+        <v>621493.0211790507</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.813813859620403e-06</v>
+        <v>4.070948530972976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.8875</v>
       </c>
       <c r="AH2" t="n">
-        <v>498554.6272461813</v>
+        <v>562178.599508655</v>
       </c>
     </row>
     <row r="3">
@@ -5822,28 +5822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.0267453926849</v>
+        <v>184.6874796716515</v>
       </c>
       <c r="AB3" t="n">
-        <v>217.5874088110325</v>
+        <v>252.6975575231957</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.8211719000162</v>
+        <v>228.580457296505</v>
       </c>
       <c r="AD3" t="n">
-        <v>159026.7453926849</v>
+        <v>184687.4796716516</v>
       </c>
       <c r="AE3" t="n">
-        <v>217587.4088110325</v>
+        <v>252697.5575231957</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.01780874480413e-06</v>
+        <v>7.25962773568805e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.106249999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>196821.1719000162</v>
+        <v>228580.457296505</v>
       </c>
     </row>
     <row r="4">
@@ -5928,28 +5928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>139.3792348796821</v>
+        <v>165.1252205046693</v>
       </c>
       <c r="AB4" t="n">
-        <v>190.7048181401664</v>
+        <v>225.9316115049789</v>
       </c>
       <c r="AC4" t="n">
-        <v>172.504217952816</v>
+        <v>204.369015600017</v>
       </c>
       <c r="AD4" t="n">
-        <v>139379.2348796821</v>
+        <v>165125.2205046693</v>
       </c>
       <c r="AE4" t="n">
-        <v>190704.8181401664</v>
+        <v>225931.6115049789</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.283676289000299e-06</v>
+        <v>7.644277589045727e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.797916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>172504.217952816</v>
+        <v>204369.015600017</v>
       </c>
     </row>
   </sheetData>
@@ -6225,28 +6225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.1959903405114</v>
+        <v>187.493886418735</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.3460007476658</v>
+        <v>256.5374070444811</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.0799964658532</v>
+        <v>232.0538369687427</v>
       </c>
       <c r="AD2" t="n">
-        <v>155195.9903405114</v>
+        <v>187493.886418735</v>
       </c>
       <c r="AE2" t="n">
-        <v>212346.0007476659</v>
+        <v>256537.4070444811</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.838132276952708e-06</v>
+        <v>7.265348800965093e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>192079.9964658532</v>
+        <v>232053.8369687427</v>
       </c>
     </row>
     <row r="3">
@@ -6331,28 +6331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.5446187462764</v>
+        <v>163.7467950998522</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.9311036426618</v>
+        <v>224.0455890542723</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.7089070845471</v>
+        <v>202.6629924849561</v>
       </c>
       <c r="AD3" t="n">
-        <v>139544.6187462764</v>
+        <v>163746.7950998523</v>
       </c>
       <c r="AE3" t="n">
-        <v>190931.1036426619</v>
+        <v>224045.5890542723</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.244915922624419e-06</v>
+        <v>7.876209542911289e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.318749999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>172708.9070845471</v>
+        <v>202662.9924849561</v>
       </c>
     </row>
   </sheetData>
@@ -6628,28 +6628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.9062086964688</v>
+        <v>170.2536358102186</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.057602847852</v>
+        <v>232.9485355757433</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.9187719796275</v>
+        <v>210.7162542857847</v>
       </c>
       <c r="AD2" t="n">
-        <v>138906.2086964688</v>
+        <v>170253.6358102185</v>
       </c>
       <c r="AE2" t="n">
-        <v>190057.602847852</v>
+        <v>232948.5355757433</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.070718791817644e-06</v>
+        <v>7.77719846144379e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.808333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>171918.7719796275</v>
+        <v>210716.2542857847</v>
       </c>
     </row>
   </sheetData>
@@ -10994,28 +10994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.8648294039673</v>
+        <v>180.3672775637403</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.0516711600685</v>
+        <v>246.786466405289</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.4818274564379</v>
+        <v>223.2335124186209</v>
       </c>
       <c r="AD2" t="n">
-        <v>149864.8294039673</v>
+        <v>180367.2775637403</v>
       </c>
       <c r="AE2" t="n">
-        <v>205051.6711600685</v>
+        <v>246786.466405289</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.806234986631414e-06</v>
+        <v>7.509647361869551e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.431250000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>185481.8274564379</v>
+        <v>223233.5124186209</v>
       </c>
     </row>
   </sheetData>
@@ -11291,28 +11291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.4583599870706</v>
+        <v>231.831889436873</v>
       </c>
       <c r="AB2" t="n">
-        <v>267.4347511484479</v>
+        <v>317.2026188285088</v>
       </c>
       <c r="AC2" t="n">
-        <v>241.9111538459489</v>
+        <v>286.9292460842817</v>
       </c>
       <c r="AD2" t="n">
-        <v>195458.3599870706</v>
+        <v>231831.8894368731</v>
       </c>
       <c r="AE2" t="n">
-        <v>267434.7511484479</v>
+        <v>317202.6188285088</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.816341783508128e-06</v>
+        <v>6.219401120318787e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.04375</v>
       </c>
       <c r="AH2" t="n">
-        <v>241911.1538459489</v>
+        <v>286929.2460842817</v>
       </c>
     </row>
   </sheetData>
@@ -11588,28 +11588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.923776185323</v>
+        <v>262.0273073961899</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.223609980838</v>
+        <v>358.5173218084187</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.3299882564573</v>
+        <v>324.3009317972438</v>
       </c>
       <c r="AD2" t="n">
-        <v>228923.776185323</v>
+        <v>262027.3073961899</v>
       </c>
       <c r="AE2" t="n">
-        <v>313223.609980838</v>
+        <v>358517.3218084187</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.9669156349478e-06</v>
+        <v>5.860645013207914e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.081249999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>283329.9882564573</v>
+        <v>324300.9317972438</v>
       </c>
     </row>
     <row r="3">
@@ -11694,28 +11694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.838267119773</v>
+        <v>166.6446026914157</v>
       </c>
       <c r="AB3" t="n">
-        <v>194.0693745359031</v>
+        <v>228.0104972432956</v>
       </c>
       <c r="AC3" t="n">
-        <v>175.5476658083292</v>
+        <v>206.2494954012039</v>
       </c>
       <c r="AD3" t="n">
-        <v>141838.267119773</v>
+        <v>166644.6026914157</v>
       </c>
       <c r="AE3" t="n">
-        <v>194069.3745359031</v>
+        <v>228010.4972432957</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.303274282382796e-06</v>
+        <v>7.834955627214771e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.04375</v>
       </c>
       <c r="AH3" t="n">
-        <v>175547.6658083292</v>
+        <v>206249.495401204</v>
       </c>
     </row>
   </sheetData>
@@ -11991,28 +11991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>362.5869446638866</v>
+        <v>405.1466075213993</v>
       </c>
       <c r="AB2" t="n">
-        <v>496.1074538961737</v>
+        <v>554.3394622176334</v>
       </c>
       <c r="AC2" t="n">
-        <v>448.7596547875068</v>
+        <v>501.4340819639033</v>
       </c>
       <c r="AD2" t="n">
-        <v>362586.9446638866</v>
+        <v>405146.6075213993</v>
       </c>
       <c r="AE2" t="n">
-        <v>496107.4538961737</v>
+        <v>554339.4622176334</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.019595385600747e-06</v>
+        <v>4.384962858705147e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.22916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>448759.6547875068</v>
+        <v>501434.0819639033</v>
       </c>
     </row>
     <row r="3">
@@ -12097,28 +12097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.7127573776862</v>
+        <v>176.6580070313691</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.2658906865667</v>
+        <v>241.7112788214346</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.6299881368948</v>
+        <v>218.6426936146974</v>
       </c>
       <c r="AD3" t="n">
-        <v>142712.7573776862</v>
+        <v>176658.0070313691</v>
       </c>
       <c r="AE3" t="n">
-        <v>195265.8906865667</v>
+        <v>241711.2788214346</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.169565093001229e-06</v>
+        <v>7.507082252332677e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.975000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>176629.9881368948</v>
+        <v>218642.6936146974</v>
       </c>
     </row>
     <row r="4">
@@ -12203,28 +12203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.0664272971248</v>
+        <v>163.6533758192444</v>
       </c>
       <c r="AB4" t="n">
-        <v>188.9085768887294</v>
+        <v>223.9177686731768</v>
       </c>
       <c r="AC4" t="n">
-        <v>170.8794074453752</v>
+        <v>202.5473711016353</v>
       </c>
       <c r="AD4" t="n">
-        <v>138066.4272971248</v>
+        <v>163653.3758192444</v>
       </c>
       <c r="AE4" t="n">
-        <v>188908.5768887294</v>
+        <v>223917.7686731768</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.295746073759699e-06</v>
+        <v>7.690318362951782e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>170879.4074453752</v>
+        <v>202547.3711016353</v>
       </c>
     </row>
   </sheetData>
@@ -12500,28 +12500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.1058917643258</v>
+        <v>286.8301987015848</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.4187414854875</v>
+        <v>392.4537319187977</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.4566721227723</v>
+        <v>354.9984985567392</v>
       </c>
       <c r="AD2" t="n">
-        <v>237105.8917643258</v>
+        <v>286830.1987015848</v>
       </c>
       <c r="AE2" t="n">
-        <v>324418.7414854876</v>
+        <v>392453.7319187977</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.084759707627649e-06</v>
+        <v>5.142110645587732e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.86666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>293456.6721227723</v>
+        <v>354998.4985567391</v>
       </c>
     </row>
   </sheetData>
@@ -12797,28 +12797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.8896628293351</v>
+        <v>170.5744858780266</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.0349640624875</v>
+        <v>233.387536793424</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.8982938081645</v>
+        <v>211.1133578433922</v>
       </c>
       <c r="AD2" t="n">
-        <v>138889.6628293351</v>
+        <v>170574.4858780266</v>
       </c>
       <c r="AE2" t="n">
-        <v>190034.9640624875</v>
+        <v>233387.536793424</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.139859463197218e-06</v>
+        <v>7.82238615175952e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.618749999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>171898.2938081645</v>
+        <v>211113.3578433922</v>
       </c>
     </row>
     <row r="3">
@@ -12903,28 +12903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.8780354974649</v>
+        <v>162.7909992794839</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.0190550340611</v>
+        <v>222.7378270461093</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.8839031150826</v>
+        <v>201.4800414473963</v>
       </c>
       <c r="AD3" t="n">
-        <v>138878.0354974649</v>
+        <v>162790.9992794839</v>
       </c>
       <c r="AE3" t="n">
-        <v>190019.0550340611</v>
+        <v>222737.8270461092</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.156026137918632e-06</v>
+        <v>7.846990321069264e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.597916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>171883.9031150826</v>
+        <v>201480.0414473963</v>
       </c>
     </row>
   </sheetData>
@@ -13200,28 +13200,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.7830755161368</v>
+        <v>204.2818284837811</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.9871353905829</v>
+        <v>279.5074100095983</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.51046843409</v>
+        <v>252.831615089478</v>
       </c>
       <c r="AD2" t="n">
-        <v>179783.0755161368</v>
+        <v>204281.8284837811</v>
       </c>
       <c r="AE2" t="n">
-        <v>245987.135390583</v>
+        <v>279507.4100095983</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.545149638771446e-06</v>
+        <v>6.785502501649178e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.206250000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>222510.46843409</v>
+        <v>252831.6150894781</v>
       </c>
     </row>
     <row r="3">
@@ -13306,28 +13306,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.1889690240488</v>
+        <v>164.6023811371214</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.8127321194376</v>
+        <v>225.2162396162553</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.506394176873</v>
+        <v>203.7219178003223</v>
       </c>
       <c r="AD3" t="n">
-        <v>140188.9690240488</v>
+        <v>164602.3811371214</v>
       </c>
       <c r="AE3" t="n">
-        <v>191812.7321194376</v>
+        <v>225216.2396162553</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.276706637256469e-06</v>
+        <v>7.877651767973631e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.208333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>173506.394176873</v>
+        <v>203721.9178003223</v>
       </c>
     </row>
   </sheetData>
